--- a/data/Ward_Age/Ward_data_reference_date.xlsx
+++ b/data/Ward_Age/Ward_data_reference_date.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mori/Documents/Devel/Tokyo_Ward_Assembly_Election/data/Ward_Age/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42CE815-FD65-3D43-86DC-00E3369B0FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A37C5C-0729-6845-A8CE-F994BEAF58A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="2300" windowWidth="13280" windowHeight="10480" xr2:uid="{F50DA770-5DF7-A347-9678-51B4B61E24AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>区名</t>
     <rPh sb="0" eb="2">
@@ -96,6 +96,27 @@
     <t>港区</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ミナトク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>練馬区</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ネリマク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千代田区</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">チヨダク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷区</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">セタガヤク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2A302-1439-8145-A76A-A8CDD655D749}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -536,6 +557,30 @@
         <v>44652</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44927</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
